--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2611117.029789382</v>
+        <v>-2614025.977860747</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666367</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>88.09081815943121</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>165.1725371760947</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,28 +738,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>65.14691586697595</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>91.29230578128426</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.2159462544349</v>
       </c>
       <c r="V4" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>230.8615565246605</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>335.2544961588296</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>335.2544961588296</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>335.2544961588296</v>
+        <v>335.2544961588341</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.58659989534476</v>
+        <v>12.58659989534474</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>44.96795805498019</v>
+        <v>9.125845820151568</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>147.1260835752737</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.2059571334993</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1283618982533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8902554169238</v>
       </c>
       <c r="H6" t="n">
-        <v>98.1999952657787</v>
+        <v>98.19999526577861</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>49.48683303354446</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>55.44979659362757</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.6894715620623</v>
+        <v>144.6894715620622</v>
       </c>
       <c r="T6" t="n">
-        <v>194.3070640244812</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>183.5542591993997</v>
+        <v>225.8457727555612</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.5526338639959</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7726135285979</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>40.85695726823351</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>63.33024104350969</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1.121718269615438</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>255.4543815434685</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>200.4727983501235</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>20.27697994470635</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>221.4087062169173</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.52615597052887</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>110.8591402265694</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>59.00369384633011</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,10 +2141,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187874</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>119.67600794497</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.547332689898</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.547332689898</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="33">
@@ -3187,10 +3187,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265259</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204.4218319897906</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678515</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058987</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123838</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985595</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020278</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652805</v>
+        <v>672.242026426227</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652805</v>
+        <v>672.242026426227</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652805</v>
+        <v>672.242026426227</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652805</v>
+        <v>583.2614020227611</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487955</v>
+        <v>393.8416170062759</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487955</v>
+        <v>393.8416170062759</v>
       </c>
       <c r="X2" t="n">
-        <v>393.8416170062756</v>
+        <v>204.4218319897908</v>
       </c>
       <c r="Y2" t="n">
-        <v>393.8416170062756</v>
+        <v>204.4218319897908</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>357.4393951609571</v>
+        <v>338.3894859156839</v>
       </c>
       <c r="C3" t="n">
-        <v>357.4393951609571</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="D3" t="n">
-        <v>357.4393951609571</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E3" t="n">
-        <v>198.2019401555016</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F3" t="n">
-        <v>198.2019401555016</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G3" t="n">
-        <v>132.3969746333036</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024219</v>
@@ -4416,43 +4416,43 @@
         <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140251</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.500058754661</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476359</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017076</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264288</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810251</v>
+        <v>598.8192732198775</v>
       </c>
       <c r="T3" t="n">
-        <v>525.6547321810251</v>
+        <v>598.8192732198775</v>
       </c>
       <c r="U3" t="n">
-        <v>525.6547321810251</v>
+        <v>598.8192732198775</v>
       </c>
       <c r="V3" t="n">
-        <v>525.6547321810251</v>
+        <v>598.8192732198775</v>
       </c>
       <c r="W3" t="n">
-        <v>525.6547321810251</v>
+        <v>598.8192732198775</v>
       </c>
       <c r="X3" t="n">
-        <v>525.6547321810251</v>
+        <v>506.6048229357519</v>
       </c>
       <c r="Y3" t="n">
-        <v>525.6547321810251</v>
+        <v>506.6048229357519</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330561</v>
+        <v>697.3589686102964</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330561</v>
+        <v>697.3589686102964</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330561</v>
+        <v>697.3589686102964</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>697.3589686102964</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>697.3589686102964</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>697.3589686102964</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>697.3589686102964</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>697.3589686102964</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>697.3589686102964</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>697.3589686102964</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>709.3965921992927</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>725.3468614886983</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>748.7753949309546</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>697.3589686102964</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330561</v>
+        <v>697.3589686102964</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330561</v>
+        <v>697.3589686102964</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330561</v>
+        <v>697.3589686102964</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330561</v>
+        <v>697.3589686102964</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1062.402313342752</v>
+        <v>385.1205029208787</v>
       </c>
       <c r="C5" t="n">
-        <v>723.7614081318129</v>
+        <v>385.1205029208787</v>
       </c>
       <c r="D5" t="n">
-        <v>385.1205029208739</v>
+        <v>385.1205029208787</v>
       </c>
       <c r="E5" t="n">
-        <v>46.47959770993485</v>
+        <v>46.47959770993519</v>
       </c>
       <c r="F5" t="n">
-        <v>39.53409696073138</v>
+        <v>39.53409696073172</v>
       </c>
       <c r="G5" t="n">
-        <v>26.82035969270637</v>
+        <v>26.82035969270672</v>
       </c>
       <c r="H5" t="n">
-        <v>26.82035969270637</v>
+        <v>26.82035969270672</v>
       </c>
       <c r="I5" t="n">
-        <v>26.82035969270637</v>
+        <v>26.82035969270672</v>
       </c>
       <c r="J5" t="n">
-        <v>75.80841166588641</v>
+        <v>75.80841166588812</v>
       </c>
       <c r="K5" t="n">
-        <v>199.9673209772211</v>
+        <v>199.9673209772247</v>
       </c>
       <c r="L5" t="n">
-        <v>390.8991887176397</v>
+        <v>390.8991887176458</v>
       </c>
       <c r="M5" t="n">
-        <v>635.0171176553315</v>
+        <v>635.0171176553405</v>
       </c>
       <c r="N5" t="n">
-        <v>887.6989382795055</v>
+        <v>887.6989382795166</v>
       </c>
       <c r="O5" t="n">
-        <v>1112.963955034613</v>
+        <v>1112.963955034626</v>
       </c>
       <c r="P5" t="n">
-        <v>1270.721434285786</v>
+        <v>1270.721434285802</v>
       </c>
       <c r="Q5" t="n">
-        <v>1341.017984635318</v>
+        <v>1341.017984635336</v>
       </c>
       <c r="R5" t="n">
-        <v>1295.595804781803</v>
+        <v>1331.799958554375</v>
       </c>
       <c r="S5" t="n">
-        <v>1295.595804781803</v>
+        <v>1183.187752922785</v>
       </c>
       <c r="T5" t="n">
-        <v>1295.595804781803</v>
+        <v>969.848402282887</v>
       </c>
       <c r="U5" t="n">
-        <v>1295.595804781803</v>
+        <v>716.1833902644494</v>
       </c>
       <c r="V5" t="n">
-        <v>1295.595804781803</v>
+        <v>385.1205029208787</v>
       </c>
       <c r="W5" t="n">
-        <v>1295.595804781803</v>
+        <v>385.1205029208787</v>
       </c>
       <c r="X5" t="n">
-        <v>1295.595804781803</v>
+        <v>385.1205029208787</v>
       </c>
       <c r="Y5" t="n">
-        <v>1295.595804781803</v>
+        <v>385.1205029208787</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>580.7186967424057</v>
+        <v>313.2618583959863</v>
       </c>
       <c r="C6" t="n">
-        <v>580.7186967424057</v>
+        <v>313.2618583959863</v>
       </c>
       <c r="D6" t="n">
-        <v>431.7842870811544</v>
+        <v>313.2618583959863</v>
       </c>
       <c r="E6" t="n">
-        <v>272.5468320756989</v>
+        <v>313.2618583959863</v>
       </c>
       <c r="F6" t="n">
-        <v>126.0122741025839</v>
+        <v>313.2618583959863</v>
       </c>
       <c r="G6" t="n">
-        <v>126.0122741025839</v>
+        <v>175.9989741364674</v>
       </c>
       <c r="H6" t="n">
-        <v>26.82035969270637</v>
+        <v>76.80705972659001</v>
       </c>
       <c r="I6" t="n">
-        <v>26.82035969270637</v>
+        <v>26.82035969270672</v>
       </c>
       <c r="J6" t="n">
-        <v>37.17946088918639</v>
+        <v>37.17946088918753</v>
       </c>
       <c r="K6" t="n">
-        <v>133.039639532258</v>
+        <v>133.0396395322605</v>
       </c>
       <c r="L6" t="n">
-        <v>308.2580207538288</v>
+        <v>308.2580207538331</v>
       </c>
       <c r="M6" t="n">
-        <v>532.0864752945463</v>
+        <v>532.0864752945528</v>
       </c>
       <c r="N6" t="n">
-        <v>776.2476479203509</v>
+        <v>776.2476479203596</v>
       </c>
       <c r="O6" t="n">
-        <v>977.3876249173451</v>
+        <v>977.3876249173558</v>
       </c>
       <c r="P6" t="n">
-        <v>1119.487123027766</v>
+        <v>1119.487123027779</v>
       </c>
       <c r="Q6" t="n">
-        <v>1164.557677933891</v>
+        <v>1164.557677933904</v>
       </c>
       <c r="R6" t="n">
-        <v>1108.547782384773</v>
+        <v>1164.557677933904</v>
       </c>
       <c r="S6" t="n">
-        <v>962.396801008952</v>
+        <v>1018.406696558084</v>
       </c>
       <c r="T6" t="n">
-        <v>766.1270393680619</v>
+        <v>1018.406696558084</v>
       </c>
       <c r="U6" t="n">
-        <v>580.7186967424057</v>
+        <v>790.2796533706485</v>
       </c>
       <c r="V6" t="n">
-        <v>580.7186967424057</v>
+        <v>567.4992151241879</v>
       </c>
       <c r="W6" t="n">
-        <v>580.7186967424057</v>
+        <v>313.2618583959863</v>
       </c>
       <c r="X6" t="n">
-        <v>580.7186967424057</v>
+        <v>313.2618583959863</v>
       </c>
       <c r="Y6" t="n">
-        <v>580.7186967424057</v>
+        <v>313.2618583959863</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>173.7103071906167</v>
+        <v>236.5471988814253</v>
       </c>
       <c r="C7" t="n">
-        <v>173.7103071906167</v>
+        <v>236.5471988814253</v>
       </c>
       <c r="D7" t="n">
-        <v>173.7103071906167</v>
+        <v>236.5471988814253</v>
       </c>
       <c r="E7" t="n">
-        <v>173.7103071906167</v>
+        <v>236.5471988814253</v>
       </c>
       <c r="F7" t="n">
-        <v>26.82035969270637</v>
+        <v>236.5471988814253</v>
       </c>
       <c r="G7" t="n">
-        <v>26.82035969270637</v>
+        <v>68.09001349900321</v>
       </c>
       <c r="H7" t="n">
-        <v>26.82035969270637</v>
+        <v>68.09001349900321</v>
       </c>
       <c r="I7" t="n">
-        <v>26.82035969270637</v>
+        <v>68.09001349900321</v>
       </c>
       <c r="J7" t="n">
-        <v>26.82035969270637</v>
+        <v>26.82035969270672</v>
       </c>
       <c r="K7" t="n">
-        <v>39.23367185447129</v>
+        <v>39.23367185447246</v>
       </c>
       <c r="L7" t="n">
-        <v>85.02423536994448</v>
+        <v>85.02423536994672</v>
       </c>
       <c r="M7" t="n">
-        <v>136.5622473004312</v>
+        <v>136.5622473004345</v>
       </c>
       <c r="N7" t="n">
-        <v>194.7323264062796</v>
+        <v>194.7323264062841</v>
       </c>
       <c r="O7" t="n">
-        <v>228.1487206430438</v>
+        <v>228.1487206430492</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6802476386063</v>
+        <v>237.6802476386127</v>
       </c>
       <c r="Q7" t="n">
-        <v>237.6802476386063</v>
+        <v>237.6802476386127</v>
       </c>
       <c r="R7" t="n">
-        <v>173.7103071906167</v>
+        <v>237.6802476386127</v>
       </c>
       <c r="S7" t="n">
-        <v>173.7103071906167</v>
+        <v>237.6802476386127</v>
       </c>
       <c r="T7" t="n">
-        <v>173.7103071906167</v>
+        <v>237.6802476386127</v>
       </c>
       <c r="U7" t="n">
-        <v>173.7103071906167</v>
+        <v>237.6802476386127</v>
       </c>
       <c r="V7" t="n">
-        <v>173.7103071906167</v>
+        <v>237.6802476386127</v>
       </c>
       <c r="W7" t="n">
-        <v>173.7103071906167</v>
+        <v>237.6802476386127</v>
       </c>
       <c r="X7" t="n">
-        <v>173.7103071906167</v>
+        <v>236.5471988814253</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.7103071906167</v>
+        <v>236.5471988814253</v>
       </c>
     </row>
     <row r="8">
@@ -4802,19 +4802,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4838,16 +4838,16 @@
         <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904653</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="X8" t="n">
-        <v>1965.962050793417</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="Y8" t="n">
-        <v>1965.962050793417</v>
+        <v>1837.396939561082</v>
       </c>
     </row>
     <row r="9">
@@ -4905,16 +4905,16 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1745.745249409541</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="V9" t="n">
         <v>1510.593141177798</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>506.6265632319841</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="C10" t="n">
-        <v>506.6265632319841</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="D10" t="n">
-        <v>356.5099238196483</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="E10" t="n">
-        <v>208.5968302372552</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934483</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934483</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934483</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981523</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
@@ -4981,31 +4981,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>506.6265632319841</v>
+        <v>408.3104175188118</v>
       </c>
       <c r="V10" t="n">
-        <v>506.6265632319841</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="W10" t="n">
-        <v>506.6265632319841</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="X10" t="n">
-        <v>506.6265632319841</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="Y10" t="n">
-        <v>506.6265632319841</v>
+        <v>153.6259293129249</v>
       </c>
     </row>
     <row r="11">
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5264,55 +5264,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1339.368993063877</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="17">
@@ -5507,43 +5507,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466574</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,31 +5762,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,31 +5969,31 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6002,22 +6002,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466574</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>642.8692823226941</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>473.9330993947872</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>323.8164599824514</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2326.07822707019</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2106.476762093131</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1817.401535437329</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1562.717047231442</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1273.299877194481</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1045.310326296464</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>824.5177471529338</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6455,43 +6455,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6929,43 +6929,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,28 +7184,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,25 +7327,25 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973196</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7388,31 +7388,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7558,22 +7558,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,22 +7658,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,28 +7801,28 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971605</v>
+        <v>195.2082544971603</v>
       </c>
       <c r="C2" t="n">
-        <v>176.9229621531761</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>353.970498262252</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>163.0784424055991</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038148</v>
+        <v>140.2266713038146</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>204.5585635023743</v>
+        <v>182.2055135121487</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>193.1339494774979</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>61.35027805667463</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -26320,31 +26320,31 @@
         <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
         <v>20178.66499225016</v>
       </c>
       <c r="G2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225016</v>
       </c>
       <c r="H2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225016</v>
       </c>
       <c r="I2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
         <v>20526.0442466071</v>
@@ -26353,7 +26353,7 @@
         <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208459</v>
       </c>
       <c r="C3" t="n">
-        <v>163527.4916130681</v>
+        <v>163527.4916130729</v>
       </c>
       <c r="D3" t="n">
-        <v>216759.9319010302</v>
+        <v>216759.9319010254</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68492.66272217642</v>
+        <v>68492.66272217649</v>
       </c>
       <c r="K3" t="n">
-        <v>38020.6938495842</v>
+        <v>38020.69384958527</v>
       </c>
       <c r="L3" t="n">
-        <v>52354.52082544705</v>
+        <v>52354.52082544584</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180465.3416072033</v>
+        <v>180465.3416072032</v>
       </c>
       <c r="C4" t="n">
-        <v>235058.4539805421</v>
+        <v>235058.4539805407</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26430,34 +26430,34 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="J4" t="n">
-        <v>22817.55530496079</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="K4" t="n">
-        <v>22817.55530496079</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496079</v>
+        <v>22817.55530496088</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496079</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="O4" t="n">
+        <v>22817.55530496085</v>
+      </c>
+      <c r="P4" t="n">
         <v>22817.55530496083</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22817.55530496076</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.8004116136</v>
       </c>
       <c r="C5" t="n">
-        <v>68740.00864417464</v>
+        <v>68740.008644175</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-812577.5889589441</v>
+        <v>-813007.1478255333</v>
       </c>
       <c r="C6" t="n">
-        <v>-446799.9099911777</v>
+        <v>-446799.9099911816</v>
       </c>
       <c r="D6" t="n">
-        <v>-455635.9595991931</v>
+        <v>-455635.9595991883</v>
       </c>
       <c r="E6" t="n">
-        <v>-697213.7684477896</v>
+        <v>-697248.5063732251</v>
       </c>
       <c r="F6" t="n">
-        <v>-95770.56087352433</v>
+        <v>-95805.29879896001</v>
       </c>
       <c r="G6" t="n">
-        <v>-95770.56087352431</v>
+        <v>-95805.29879896001</v>
       </c>
       <c r="H6" t="n">
-        <v>-95770.56087352433</v>
+        <v>-95805.29879896001</v>
       </c>
       <c r="I6" t="n">
-        <v>-95770.56087352434</v>
+        <v>-95805.29879895995</v>
       </c>
       <c r="J6" t="n">
-        <v>-173948.2896344455</v>
+        <v>-173948.2896344456</v>
       </c>
       <c r="K6" t="n">
-        <v>-143476.3207618533</v>
+        <v>-143476.3207618544</v>
       </c>
       <c r="L6" t="n">
-        <v>-157810.1477377162</v>
+        <v>-157810.147737715</v>
       </c>
       <c r="M6" t="n">
-        <v>-262602.0074638671</v>
+        <v>-262602.0074638673</v>
       </c>
       <c r="N6" t="n">
         <v>-105455.6269122691</v>
       </c>
       <c r="O6" t="n">
-        <v>-124883.344905901</v>
+        <v>-124883.3449059009</v>
       </c>
       <c r="P6" t="n">
         <v>-105455.6269122691</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.469940912905</v>
       </c>
       <c r="C3" t="n">
-        <v>675.639232922835</v>
+        <v>675.639232922839</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>335.2544961588296</v>
+        <v>335.2544961588341</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.907985046680551e-14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.469940912905</v>
       </c>
       <c r="C3" t="n">
-        <v>127.1692920099302</v>
+        <v>127.169292009934</v>
       </c>
       <c r="D3" t="n">
-        <v>178.0714316148491</v>
+        <v>178.0714316148451</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>147.7289089925095</v>
+        <v>147.7289089925137</v>
       </c>
       <c r="D4" t="n">
-        <v>206.8604605673337</v>
+        <v>206.8604605673291</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>147.7289089925096</v>
+        <v>147.7289089925137</v>
       </c>
       <c r="L4" t="n">
-        <v>206.8604605673337</v>
+        <v>206.8604605673289</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>147.7289089925095</v>
+        <v>147.7289089925137</v>
       </c>
       <c r="L4" t="n">
-        <v>206.8604605673337</v>
+        <v>206.8604605673291</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8243424515113418</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>27.95987181000982</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27430,10 +27430,10 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27458,28 +27458,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>71.01687349879938</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409146</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265831</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846313</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>114.4806794221932</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,16 +27552,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825411</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402843</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709376</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159719</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>132.8223696106903</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27591,10 +27591,10 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390154</v>
       </c>
       <c r="V4" t="n">
-        <v>199.9216970693934</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>151.87228513882</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>30.01839561217793</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>19.42854546185333</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>46.67587391343216</v>
+        <v>46.67587391342772</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.6581577170898</v>
+        <v>311.6581577170897</v>
       </c>
       <c r="I5" t="n">
-        <v>105.7619939834407</v>
+        <v>105.76199398344</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>35.84211223482762</v>
       </c>
       <c r="S5" t="n">
-        <v>147.126083575274</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>211.2059571334994</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1283618982533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8902554169238</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>49.48683303354476</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>55.44979659362704</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.3070640244811</v>
       </c>
       <c r="U6" t="n">
-        <v>42.29151355616153</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>12.24795328542933</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7726135285979</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>151.3947926746768</v>
+        <v>151.3947926746767</v>
       </c>
       <c r="I7" t="n">
-        <v>118.8108916074429</v>
+        <v>118.8108916074427</v>
       </c>
       <c r="J7" t="n">
-        <v>40.85695726823403</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>49.48347745809775</v>
+        <v>49.48347745809716</v>
       </c>
       <c r="R7" t="n">
-        <v>59.1809922019165</v>
+        <v>122.5112332454259</v>
       </c>
       <c r="S7" t="n">
-        <v>202.7838044383973</v>
+        <v>202.7838044383971</v>
       </c>
       <c r="T7" t="n">
-        <v>222.7398445188761</v>
+        <v>222.739844518876</v>
       </c>
       <c r="U7" t="n">
         <v>286.2525730384985</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>224.5879371194217</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>127.279460120012</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>169.2583023283455</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>117.2980339485929</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
@@ -27989,7 +27989,7 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>11.39188093250795</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28029,10 +28029,10 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.068535313726665</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28065,10 +28065,10 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>175.3759175891473</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954487</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043125</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528641</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672895</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470027</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244297</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974685</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619227</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924588</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061602</v>
@@ -31124,43 +31124,43 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590854</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405035</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292676</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628874</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550082</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288822</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390168</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445827</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620023</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.925421811142</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276992</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604416</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820539</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784866</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181398</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.71613761979029</v>
+        <v>2.716137619790306</v>
       </c>
       <c r="H5" t="n">
-        <v>27.81664439867731</v>
+        <v>27.81664439867748</v>
       </c>
       <c r="I5" t="n">
-        <v>104.7138955869652</v>
+        <v>104.7138955869659</v>
       </c>
       <c r="J5" t="n">
-        <v>230.5287853076763</v>
+        <v>230.5287853076777</v>
       </c>
       <c r="K5" t="n">
-        <v>345.5028907533993</v>
+        <v>345.5028907534013</v>
       </c>
       <c r="L5" t="n">
-        <v>428.6268874350565</v>
+        <v>428.626887435059</v>
       </c>
       <c r="M5" t="n">
-        <v>476.929999831002</v>
+        <v>476.9299998310049</v>
       </c>
       <c r="N5" t="n">
-        <v>484.6472258432312</v>
+        <v>484.6472258432341</v>
       </c>
       <c r="O5" t="n">
-        <v>457.6386323864415</v>
+        <v>457.6386323864442</v>
       </c>
       <c r="P5" t="n">
-        <v>390.5839848978687</v>
+        <v>390.583984897871</v>
       </c>
       <c r="Q5" t="n">
-        <v>293.3123063891288</v>
+        <v>293.3123063891306</v>
       </c>
       <c r="R5" t="n">
-        <v>170.6175797591519</v>
+        <v>170.6175797591529</v>
       </c>
       <c r="S5" t="n">
-        <v>61.89398601097129</v>
+        <v>61.89398601097165</v>
       </c>
       <c r="T5" t="n">
-        <v>11.889892430632</v>
+        <v>11.88989243063207</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2172910095832231</v>
+        <v>0.2172910095832244</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.453261746286853</v>
+        <v>1.453261746286861</v>
       </c>
       <c r="H6" t="n">
-        <v>14.03544897071776</v>
+        <v>14.03544897071785</v>
       </c>
       <c r="I6" t="n">
-        <v>50.03554696645524</v>
+        <v>50.03554696645554</v>
       </c>
       <c r="J6" t="n">
-        <v>137.3013652489697</v>
+        <v>137.3013652489705</v>
       </c>
       <c r="K6" t="n">
-        <v>234.6699022501889</v>
+        <v>234.6699022501903</v>
       </c>
       <c r="L6" t="n">
-        <v>315.5426436400467</v>
+        <v>315.5426436400486</v>
       </c>
       <c r="M6" t="n">
-        <v>368.2233819429451</v>
+        <v>368.2233819429472</v>
       </c>
       <c r="N6" t="n">
-        <v>377.9691591801056</v>
+        <v>377.9691591801079</v>
       </c>
       <c r="O6" t="n">
-        <v>345.7679383808022</v>
+        <v>345.7679383808043</v>
       </c>
       <c r="P6" t="n">
-        <v>277.5092539905132</v>
+        <v>277.5092539905148</v>
       </c>
       <c r="Q6" t="n">
-        <v>185.5075871225113</v>
+        <v>185.5075871225123</v>
       </c>
       <c r="R6" t="n">
-        <v>90.22970737033638</v>
+        <v>90.22970737033691</v>
       </c>
       <c r="S6" t="n">
-        <v>26.99369954177552</v>
+        <v>26.99369954177567</v>
       </c>
       <c r="T6" t="n">
-        <v>5.857664670340426</v>
+        <v>5.857664670340461</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09560932541360878</v>
+        <v>0.09560932541360934</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.21836582986085</v>
+        <v>1.218365829860857</v>
       </c>
       <c r="H7" t="n">
-        <v>10.83237983276284</v>
+        <v>10.8323798327629</v>
       </c>
       <c r="I7" t="n">
-        <v>36.63958331981539</v>
+        <v>36.63958331981561</v>
       </c>
       <c r="J7" t="n">
-        <v>86.13846417116208</v>
+        <v>86.1384641711626</v>
       </c>
       <c r="K7" t="n">
-        <v>141.5519573238333</v>
+        <v>141.5519573238341</v>
       </c>
       <c r="L7" t="n">
-        <v>181.1377707413122</v>
+        <v>181.1377707413133</v>
       </c>
       <c r="M7" t="n">
-        <v>190.9843818571876</v>
+        <v>190.9843818571887</v>
       </c>
       <c r="N7" t="n">
-        <v>186.4432001277064</v>
+        <v>186.4432001277075</v>
       </c>
       <c r="O7" t="n">
-        <v>172.2104720243318</v>
+        <v>172.2104720243329</v>
       </c>
       <c r="P7" t="n">
-        <v>147.3558090951704</v>
+        <v>147.3558090951713</v>
       </c>
       <c r="Q7" t="n">
-        <v>102.0215241713481</v>
+        <v>102.0215241713487</v>
       </c>
       <c r="R7" t="n">
-        <v>54.78215813174329</v>
+        <v>54.78215813174361</v>
       </c>
       <c r="S7" t="n">
-        <v>21.23279359857499</v>
+        <v>21.23279359857511</v>
       </c>
       <c r="T7" t="n">
-        <v>5.205744909405449</v>
+        <v>5.205744909405479</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06645631799241007</v>
+        <v>0.06645631799241046</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496632</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>340.4395077511227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>405.637736314577</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>472.0729312464055</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>322.6999460717711</v>
+        <v>509.0826837242976</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868222</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788355</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973023</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504118</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656916013</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065995</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781483</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606293</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755149</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855714</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440765007</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646089</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061166</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520837</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400637</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>49.48288078099003</v>
+        <v>49.48288078099137</v>
       </c>
       <c r="K5" t="n">
-        <v>125.4130397084188</v>
+        <v>125.4130397084208</v>
       </c>
       <c r="L5" t="n">
-        <v>192.8604724650693</v>
+        <v>192.8604724650718</v>
       </c>
       <c r="M5" t="n">
-        <v>246.5837666037293</v>
+        <v>246.5837666037321</v>
       </c>
       <c r="N5" t="n">
-        <v>255.2341622466403</v>
+        <v>255.2341622466432</v>
       </c>
       <c r="O5" t="n">
-        <v>227.5404209647548</v>
+        <v>227.5404209647575</v>
       </c>
       <c r="P5" t="n">
-        <v>159.3509891425991</v>
+        <v>159.3509891426015</v>
       </c>
       <c r="Q5" t="n">
-        <v>71.00661651467934</v>
+        <v>71.0066165146811</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10.46373858230305</v>
+        <v>10.46373858230385</v>
       </c>
       <c r="K6" t="n">
-        <v>96.82846327582988</v>
+        <v>96.82846327583127</v>
       </c>
       <c r="L6" t="n">
-        <v>176.9882638601725</v>
+        <v>176.9882638601744</v>
       </c>
       <c r="M6" t="n">
-        <v>226.0893480209268</v>
+        <v>226.0893480209289</v>
       </c>
       <c r="N6" t="n">
-        <v>246.6274470967723</v>
+        <v>246.6274470967745</v>
       </c>
       <c r="O6" t="n">
-        <v>203.1716939363578</v>
+        <v>203.1716939363598</v>
       </c>
       <c r="P6" t="n">
-        <v>143.5348465761829</v>
+        <v>143.5348465761846</v>
       </c>
       <c r="Q6" t="n">
-        <v>45.52581303648975</v>
+        <v>45.52581303649083</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>12.5386991532979</v>
+        <v>12.53869915329872</v>
       </c>
       <c r="L7" t="n">
-        <v>46.25309446007392</v>
+        <v>46.253094460075</v>
       </c>
       <c r="M7" t="n">
-        <v>52.05859790958252</v>
+        <v>52.05859790958365</v>
       </c>
       <c r="N7" t="n">
-        <v>58.75765566247318</v>
+        <v>58.75765566247429</v>
       </c>
       <c r="O7" t="n">
-        <v>33.75393357248905</v>
+        <v>33.75393357249007</v>
       </c>
       <c r="P7" t="n">
-        <v>9.627805046022758</v>
+        <v>9.627805046023639</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663299</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>197.8432633066783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312436</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>191.3582339884378</v>
+        <v>377.7409716409642</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
